--- a/AbkSection/UI2/LibInfo.xlsx
+++ b/AbkSection/UI2/LibInfo.xlsx
@@ -11,6 +11,62 @@
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="17">
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>20160421163356</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>Sx</t>
+  </si>
+  <si>
+    <t>Sy</t>
+  </si>
+  <si>
+    <t>Iy</t>
+  </si>
+  <si>
+    <t>Ix</t>
+  </si>
+  <si>
+    <t>Ixy</t>
+  </si>
+  <si>
+    <t>Centroid</t>
+  </si>
+  <si>
+    <t>[1.0,1.0]</t>
+  </si>
+  <si>
+    <t>Angle</t>
+  </si>
+  <si>
+    <t>ix</t>
+  </si>
+  <si>
+    <t>iy</t>
+  </si>
+  <si>
+    <t>20160421163540</t>
+  </si>
+  <si>
+    <t>[0.83333333,2.83333333]</t>
+  </si>
+  <si>
+    <t>20160421163556</t>
+  </si>
+  <si>
+    <t>[0.91666666,1.91666666]</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -53,6 +109,125 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>4</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>114304</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="20160421163356.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3924300" y="0"/>
+          <a:ext cx="1828804" cy="1828804"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>4</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>114304</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="20160421163540.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3924300" y="2857500"/>
+          <a:ext cx="1828804" cy="1828804"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>4</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>114304</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3" descr="20160421163556.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3924300" y="5715000"/>
+          <a:ext cx="1828804" cy="1828804"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -340,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -349,7 +524,273 @@
     <col min="1" max="1" width="15.7109375" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22">
+        <v>6.75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24">
+        <v>-0.28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25">
+        <v>2.89</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>2</v>
+      </c>
+      <c r="B32">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35">
+        <v>7.25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36">
+        <v>29.25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37">
+        <v>9.75</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>11</v>
+      </c>
+      <c r="B40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>12</v>
+      </c>
+      <c r="B41">
+        <v>1.11</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>